--- a/data/predictions/gender/gay_marr/leveled/other.xlsx
+++ b/data/predictions/gender/gay_marr/leveled/other.xlsx
@@ -742,16 +742,16 @@
         <v>0.06175641605786217</v>
       </c>
       <c r="D34">
-        <v>0.07302912632209621</v>
+        <v>-0.001665974558145995</v>
       </c>
       <c r="G34">
         <v>0.04416202335420366</v>
       </c>
       <c r="I34">
-        <v>0.3668729348794301</v>
+        <v>0.5096601841954376</v>
       </c>
       <c r="J34">
-        <v>0.2958634652553307</v>
+        <v>0.5997667919832946</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -762,16 +762,16 @@
         <v>0.01787565411174554</v>
       </c>
       <c r="D35">
-        <v>0.02925128212341786</v>
+        <v>0.05424597862404488</v>
       </c>
       <c r="G35">
         <v>0.02546617191791314</v>
       </c>
       <c r="I35">
-        <v>0.2851295606977221</v>
+        <v>0.4034260028189866</v>
       </c>
       <c r="J35">
-        <v>0.2958634652553307</v>
+        <v>0.5726644738570326</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -782,16 +782,16 @@
         <v>-0.02575681507709215</v>
       </c>
       <c r="D36">
-        <v>0.02132987548001285</v>
+        <v>0.02810840777708191</v>
       </c>
       <c r="G36">
         <v>0.01477329004111109</v>
       </c>
       <c r="I36">
-        <v>0.2719695583081205</v>
+        <v>0.2969487242524179</v>
       </c>
       <c r="J36">
-        <v>0.2958634652553307</v>
+        <v>0.6419993284083405</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -802,16 +802,16 @@
         <v>-0.06963756673524477</v>
       </c>
       <c r="D37">
-        <v>-0.0003403310059816519</v>
+        <v>-0.04228507772089971</v>
       </c>
       <c r="G37">
         <v>0.005173250836338645</v>
       </c>
       <c r="I37">
-        <v>0.3306933290289348</v>
+        <v>0.2974586385039532</v>
       </c>
       <c r="J37">
-        <v>0.2958634652553307</v>
+        <v>0.584069161977819</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -822,16 +822,16 @@
         <v>-0.1132700462116202</v>
       </c>
       <c r="D38">
-        <v>-0.01673869483275502</v>
+        <v>0.007628422890997029</v>
       </c>
       <c r="G38">
         <v>-0.004277555624646483</v>
       </c>
       <c r="I38">
-        <v>0.4335370937956881</v>
+        <v>0.4851117203967553</v>
       </c>
       <c r="J38">
-        <v>0.2958634652553307</v>
+        <v>0.8551531362744295</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -842,16 +842,16 @@
         <v>-0.1571507875826613</v>
       </c>
       <c r="D39">
-        <v>-0.03515849510065627</v>
+        <v>-0.1414454957561055</v>
       </c>
       <c r="G39">
         <v>-0.01370798366119021</v>
       </c>
       <c r="I39">
-        <v>0.4492142379659333</v>
+        <v>0.5283465740125406</v>
       </c>
       <c r="J39">
-        <v>0.2958634652553307</v>
+        <v>0.7046394519040591</v>
       </c>
     </row>
   </sheetData>
